--- a/myapp/files/9_MethodComparePercent/Scenario 360.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 360.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>4740</v>
+        <v>11020</v>
       </c>
       <c r="F2" t="n">
-        <v>6.0257811904096</v>
+        <v>1.67213423201697</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -593,10 +593,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>1.63398692810458</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>1842</v>
+        <v>14175</v>
       </c>
       <c r="F3" t="n">
-        <v>2.34166433601993</v>
+        <v>2.15086231749914</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>1.63398692810458</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>3672</v>
+        <v>17692</v>
       </c>
       <c r="F4" t="n">
-        <v>4.66807352978566</v>
+        <v>2.68451895034884</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>2.61437908496732</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>5224</v>
+        <v>26163</v>
       </c>
       <c r="F5" t="n">
-        <v>6.64107192799573</v>
+        <v>3.9698773060127</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,10 +707,10 @@
         <v>2.73972602739726</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>4.2483660130719</v>
       </c>
       <c r="K5" t="n">
         <v>3</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>4438</v>
+        <v>27150</v>
       </c>
       <c r="F6" t="n">
-        <v>5.64186011034553</v>
+        <v>4.1196410525645</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>3.26797385620915</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>8646</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.31191221143546</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.30718954248366</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>5972</v>
+        <v>34278</v>
       </c>
       <c r="F8" t="n">
-        <v>7.59197579517429</v>
+        <v>5.20121753222121</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
@@ -821,10 +821,10 @@
         <v>6.84931506849315</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>3.92156862745098</v>
       </c>
       <c r="K8" t="n">
         <v>5</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>3902</v>
+        <v>42842</v>
       </c>
       <c r="F9" t="n">
-        <v>4.96046375632453</v>
+        <v>6.50068736552369</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -859,10 +859,10 @@
         <v>5.47945205479452</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>6.20915032679739</v>
       </c>
       <c r="K9" t="n">
         <v>7</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>180</v>
+        <v>41309</v>
       </c>
       <c r="F10" t="n">
-        <v>0.228827133813023</v>
+        <v>6.26807558896452</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -897,10 +897,10 @@
         <v>4.10958904109589</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>6.86274509803922</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>1056</v>
+        <v>28682</v>
       </c>
       <c r="F11" t="n">
-        <v>1.34245251836973</v>
+        <v>4.35210109280497</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -935,10 +935,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>5.55555555555556</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>7667</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.16336235543322</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.30718954248366</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>28632</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>4.34451427687023</v>
       </c>
       <c r="G13" t="n">
         <v>3</v>
@@ -1011,10 +1011,10 @@
         <v>4.10958904109589</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.57516339869281</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>6424</v>
+        <v>52977</v>
       </c>
       <c r="F14" t="n">
-        <v>8.16658615341588</v>
+        <v>8.03853495549574</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>8.21917808219178</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>8.82352941176471</v>
       </c>
       <c r="K14" t="n">
         <v>7</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>11390</v>
+        <v>57675</v>
       </c>
       <c r="F15" t="n">
-        <v>14.4796725229463</v>
+        <v>8.75139218072403</v>
       </c>
       <c r="G15" t="n">
         <v>8</v>
@@ -1087,10 +1087,10 @@
         <v>10.958904109589</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>9.15032679738562</v>
       </c>
       <c r="K15" t="n">
         <v>7</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>8059</v>
+        <v>38723</v>
       </c>
       <c r="F16" t="n">
-        <v>10.2450992855508</v>
+        <v>5.8756854688197</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>5.22875816993464</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>4649</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.705422145612241</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.30718954248366</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>374</v>
+        <v>31174</v>
       </c>
       <c r="F18" t="n">
-        <v>0.475451933589281</v>
+        <v>4.73022799899247</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>4.57516339869281</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>7275</v>
+        <v>59766</v>
       </c>
       <c r="F19" t="n">
-        <v>9.24842999160967</v>
+        <v>9.0686728231149</v>
       </c>
       <c r="G19" t="n">
         <v>13</v>
@@ -1239,10 +1239,10 @@
         <v>17.8082191780822</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>6.86274509803922</v>
       </c>
       <c r="K19" t="n">
         <v>10</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>6541</v>
+        <v>45771</v>
       </c>
       <c r="F20" t="n">
-        <v>8.31532379039434</v>
+        <v>6.94512304298083</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
@@ -1277,10 +1277,10 @@
         <v>20.5479452054795</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>6.86274509803922</v>
       </c>
       <c r="K20" t="n">
         <v>3</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>24264</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.68173003681123</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1315,10 +1315,10 @@
         <v>2.73972602739726</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.105911950448988</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.980392156862745</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2738</v>
+        <v>11886</v>
       </c>
       <c r="F23" t="n">
-        <v>3.48071495766698</v>
+        <v>1.80353788400669</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1391,10 +1391,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>2.28758169934641</v>
       </c>
       <c r="K23" t="n">
         <v>3</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>1565</v>
+        <v>12278</v>
       </c>
       <c r="F24" t="n">
-        <v>1.98952480231878</v>
+        <v>1.86301852093506</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>2.73972602739726</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>2.61437908496732</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>1735</v>
+        <v>13519</v>
       </c>
       <c r="F25" t="n">
-        <v>2.20563931758664</v>
+        <v>2.05132329243534</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>2.73972602739726</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>2.94117647058824</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>1535</v>
+        <v>17402</v>
       </c>
       <c r="F26" t="n">
-        <v>1.95138694668328</v>
+        <v>2.64051541792734</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>2.28758169934641</v>
       </c>
       <c r="K26" t="n">
         <v>5</v>
